--- a/design/database_design.xlsx
+++ b/design/database_design.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sites\rails_apps\phl_property_tax\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{965F7827-8216-49D4-8546-898B983D9AA2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E7854B3-3A59-4CC5-9149-6126B4AAACFD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{D06FBBBD-ADE5-4707-B0F8-4E8CF4294DB1}"/>
   </bookViews>

--- a/design/database_design.xlsx
+++ b/design/database_design.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sites\rails_apps\phl_property_tax\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E7854B3-3A59-4CC5-9149-6126B4AAACFD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{965F7827-8216-49D4-8546-898B983D9AA2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{D06FBBBD-ADE5-4707-B0F8-4E8CF4294DB1}"/>
   </bookViews>
